--- a/biology/Histoire de la zoologie et de la botanique/Friedrich_Alexander_Buhse/Friedrich_Alexander_Buhse.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Friedrich_Alexander_Buhse/Friedrich_Alexander_Buhse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Friedrich Alexander Buhse, parfois orthographié Buze[1], est un botaniste germano-balte originaire de Livonie, né à Riga le 30 novembre 1821 et mort le 29 décembre 1898.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Friedrich Alexander Buhse, parfois orthographié Buze, est un botaniste germano-balte originaire de Livonie, né à Riga le 30 novembre 1821 et mort le 29 décembre 1898.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Friedrich Alexander Buhse naît à Riga, dans le Gouvernement de Livonie, le 30 novembre 1821. Après avoir effectué ses études secondaires dans sa ville natale, il entame des études de botanique en 1840 à l'université de Dorpat, et les poursuit à Berlin en 1842, puis à Heidelberg, où il obtient son diplôme en 1843[2].
-Entre 1847 et 1849, il accompagne Pierre Edmond Boissier, en expédition au Proche-Orient et Asie de l'Ouest, Azerbaidjan, Arménie, Iran[3] ; ils effectuent de nombreuses récoltes, parmi lesquelles ils décriront quelque 250 nouvelles espèces[4].
-En 1852, il devient membre correspondant  de la Société linnéenne de Lyon[1].
-Son herbier est conservé au Natural History Museum à Londres[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Friedrich Alexander Buhse naît à Riga, dans le Gouvernement de Livonie, le 30 novembre 1821. Après avoir effectué ses études secondaires dans sa ville natale, il entame des études de botanique en 1840 à l'université de Dorpat, et les poursuit à Berlin en 1842, puis à Heidelberg, où il obtient son diplôme en 1843.
+Entre 1847 et 1849, il accompagne Pierre Edmond Boissier, en expédition au Proche-Orient et Asie de l'Ouest, Azerbaidjan, Arménie, Iran ; ils effectuent de nombreuses récoltes, parmi lesquelles ils décriront quelque 250 nouvelles espèces.
+En 1852, il devient membre correspondant  de la Société linnéenne de Lyon.
+Son herbier est conservé au Natural History Museum à Londres.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexander von Bunge lui a dédié le genre Buhsia (Capparaceae)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexander von Bunge lui a dédié le genre Buhsia (Capparaceae).
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Principales œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ueber den Fruchtkörper der Flechten (Lichines), 1846.
 Bergreise von Gilan nach Asterabad, 1849.
